--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -628,10 +652,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -675,28 +699,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -721,28 +745,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1178,10 +1202,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1225,28 +1249,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1271,28 +1295,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1699,10 +1723,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1746,28 +1770,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
+      <c r="C56" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="3">
+      <c r="D56" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1792,28 +1816,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2307,10 +2331,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2354,28 +2378,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="A77" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="3">
+      <c r="C79" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="3">
+      <c r="D79" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="3">
+      <c r="I79" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2741,10 +2765,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K90" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2788,28 +2812,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2834,28 +2858,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3117,10 +3141,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3164,28 +3188,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="A105" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3210,28 +3234,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="3">
+      <c r="I107" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3406,10 +3430,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="J113" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="3" t="s">
+      <c r="K113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3453,28 +3477,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3499,28 +3523,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3811,10 +3835,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="3" t="s">
+      <c r="K127" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3858,28 +3882,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3904,28 +3928,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4158,10 +4182,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="J139" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="3" t="s">
+      <c r="K139" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4205,28 +4229,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="3">
+      <c r="A141" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4251,28 +4275,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="3">
+      <c r="C143" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="3">
+      <c r="D143" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="3">
+      <c r="I143" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4389,10 +4413,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="3" t="s">
+      <c r="J147" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="3" t="s">
+      <c r="K147" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4436,28 +4460,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="3">
+      <c r="A149" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="3">
+      <c r="B149" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="3">
+      <c r="C149" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="3">
+      <c r="D149" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="3">
+      <c r="F149" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="3">
+      <c r="G149" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="3">
+      <c r="H149" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4482,28 +4506,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="3">
+      <c r="C151" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="3">
+      <c r="D151" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="3">
+      <c r="I151" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4649,10 +4673,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="3" t="s">
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
